--- a/pred_ohlcv/54_21/2020-01-12 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 REP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1499.855178084714</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1668.855178084714</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1653.855178084714</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1664.193578084714</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1632.993578084714</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1590.993578084714</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1515.860578084714</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1515.792078084714</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1576.746578084714</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1591.746578084714</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-3425.414288396918</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3216.307088396919</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-3216.307088396919</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3184.415588396918</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2699.656488396919</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-2691.386588396919</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-3077.566807477471</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3583.593482832922</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3482.572282832922</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3451.535382832922</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3484.662082832921</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3484.662082832921</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3443.797282832922</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3553.425582832921</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3410.427882832922</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3616.342382832921</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-3391.786930581513</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-3346.986930581513</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-3346.986930581513</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-3439.787430581513</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-3439.787430581513</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-3593.212830581513</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-3608.731230581513</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-3593.212730581513</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-3593.112730581513</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-3593.112730581513</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-3588.112730581513</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-3662.216830581513</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-3660.216830581513</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-3694.920030581513</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-3511.510130581513</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-3517.910130581513</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-3490.329330581513</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-3490.329330581513</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-3549.161030581513</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-3653.244430581513</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-3717.244430581513</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-3682.157830581513</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-3818.134830581513</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-3817.134830581513</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-3817.134830581513</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-3761.878730581513</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-4417.742930581512</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4345.161730581512</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-4295.161730581512</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-4292.173930581512</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-4292.173930581512</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-4292.073930581511</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-4485.736830581512</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 REP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1499.855178084714</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1668.855178084714</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1653.855178084714</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1664.193578084714</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1632.993578084714</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1590.993578084714</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1515.860578084714</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1576.746578084714</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1439.733478084714</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-3077.566807477471</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3140.085282832922</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3506.154382832922</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-3516.048282832922</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3583.593482832922</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3482.572282832922</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3451.535382832922</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3484.662082832921</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3484.662082832921</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3443.797282832922</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3553.425582832921</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3410.427882832922</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-3391.786930581513</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-3346.986930581513</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-3346.986930581513</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-3439.787430581513</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-3439.787430581513</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-3593.212830581513</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-3608.731230581513</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-3593.212730581513</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-3593.112730581513</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-3593.112730581513</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-3588.112730581513</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-3662.216830581513</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-3660.216830581513</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-3694.920030581513</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-3511.510130581513</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-3490.329330581513</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-3490.329330581513</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-3505.729330581513</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-3555.113930581513</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-3682.157830581513</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-3818.134830581513</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-3817.134830581513</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-3761.878730581513</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-3743.848030581513</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-3851.947230581513</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-3805.078530581513</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-3977.097330581513</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-4006.965330581513</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-4356.701930581512</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-4379.685730581512</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-4379.685730581512</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-4379.685730581512</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-4379.685730581512</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-4378.906030581512</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-4435.506930581512</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-4442.613830581512</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-4384.040430581512</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-4417.608730581512</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-4417.742930581512</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-4415.742930581512</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-3813.292330581512</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-4307.945930581512</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-4288.296730581512</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-4338.296730581512</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-4321.096730581512</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-4320.296730581512</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-4345.161730581512</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4345.161730581512</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-4292.173930581512</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-4311.462630581512</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-4290.698330581512</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-4306.398330581512</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-4287.767630581512</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-4379.171230581512</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-4379.171230581512</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-4485.736830581512</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-4482.839930581512</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-4482.839930581512</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-4468.127930581511</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-4468.127930581511</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-4388.142230581511</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-4388.142230581511</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-4494.547930581512</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-4494.547930581512</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-4494.547930581512</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-4615.347130581512</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-4599.647130581512</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-4605.161130581512</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-4605.161130581512</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-4483.000630581512</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-4483.000630581512</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-4483.000630581512</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-4476.875030581512</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-4482.764630581512</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-4479.876830581512</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-4601.240830581512</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-4601.240830581512</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-4599.101330581511</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-4599.101330581511</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-4599.101330581511</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-4599.101330581511</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-4580.565830581511</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-4580.565830581511</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-4235.490330581511</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-4207.106430581512</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-4207.106430581512</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-4192.858830581512</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-4192.858830581512</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-4192.858830581512</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-4192.858830581512</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-4199.120830581512</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-4195.818430581512</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-4208.285230581512</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-4208.285230581512</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-4179.751630581512</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-4179.751630581512</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-4179.751630581512</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-4186.765530581512</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-4186.765530581512</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-4168.249130581512</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-4168.249130581512</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-4168.249130581512</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-4171.125730581512</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-4280.021730581511</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-4280.021730581511</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-4247.152230581512</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-4512.987030581511</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-4512.987030581511</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-4512.987030581511</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-4703.788530581511</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-4703.788530581511</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-4703.788530581511</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-4803.601430581511</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-4803.601430581511</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-4982.845330581511</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-4981.845330581511</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-4982.994730581511</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-4869.295630581511</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-4869.295630581511</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-4838.303630581511</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-4895.490030581511</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-4982.185630581511</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-4982.118630581511</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-5109.979130581511</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-4961.004830581511</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-5216.23263058151</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
